--- a/output/ejecucion_2/results/base0/base0_ci_rf_st.xlsx
+++ b/output/ejecucion_2/results/base0/base0_ci_rf_st.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
+    <t>_tejgkft_redr</t>
+  </si>
+  <si>
+    <t>_tejgct_r09gstcp</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct05pgrco</t>
+  </si>
+  <si>
+    <t>_tejgge_r09ct06acanf</t>
+  </si>
+  <si>
+    <t>_devppimtotfun_f1trans</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct05prots</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r08ct05amb</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r07ct05salud</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r08amb</t>
+  </si>
+  <si>
     <t>_tejgfun_f5ct06amb</t>
   </si>
   <si>
-    <t>_tejgfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct05pgrco</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05prots</t>
-  </si>
-  <si>
     <t>_tejgfun_f5ct06opseg</t>
   </si>
   <si>
-    <t>_tejgge_r08ct05pobso</t>
-  </si>
-  <si>
-    <t>_tejgct_r18gstcr</t>
-  </si>
-  <si>
-    <t>devppimtotfun_f5r18opseg</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5trans</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5amb</t>
+    <t>_tejgfun_f5ct06cydep</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f2prots</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f5r08ambpc</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2opsegpc</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r08ct05prots</t>
+  </si>
+  <si>
+    <t>tejgfun_f2ct05prots</t>
   </si>
   <si>
     <t>_tejgtotfun_f5r08pgrco</t>
   </si>
   <si>
-    <t>_tejgct_r09gstcp</t>
-  </si>
-  <si>
-    <t>_devppimtotfun_f1trans</t>
-  </si>
-  <si>
-    <t>_tejgge_r18ct05biser</t>
-  </si>
-  <si>
-    <t>_tejgkft_redr</t>
+    <t>_tejgtotfun_f5cydep</t>
+  </si>
+  <si>
+    <t>pimgtotfun_f1san</t>
   </si>
   <si>
     <t>_tejgtotfun_f5r18amb</t>
   </si>
   <si>
-    <t>per_012</t>
-  </si>
-  <si>
-    <t>compu_muni_5</t>
+    <t>devppimtotfun_f5r07salud</t>
+  </si>
+  <si>
+    <t>tejgtotfun_f5r18opseg</t>
+  </si>
+  <si>
+    <t>tejgfun_f5r08ct05ambpc</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r07ct05agro</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r18ct05trans</t>
+  </si>
+  <si>
+    <t>tejgfun_f5ct06viv</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5ct06opsegpc</t>
   </si>
   <si>
     <t>_devppimfun_f1ct05trans</t>
   </si>
   <si>
-    <t>devppimfun_f5r18ct05agro</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2cydep</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2prots</t>
-  </si>
-  <si>
-    <t>empinc_4</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5viv</t>
-  </si>
-  <si>
-    <t>_tejgfun_f2ct05opsegpc</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05opseg</t>
-  </si>
-  <si>
-    <t>pimgfun_f2ct06pgrco</t>
-  </si>
-  <si>
-    <t>_devppimft_reod</t>
-  </si>
-  <si>
-    <t>_tejgfun_f4ct06trans</t>
-  </si>
-  <si>
-    <t>_devppimgge_r13ct05biser</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct05trans</t>
-  </si>
-  <si>
-    <t>tejgfun_f5r18ct06opseg</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5prots</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r07ct05cydep</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r18pgrco</t>
-  </si>
-  <si>
-    <t>_tejgge_r07ct05dotra</t>
-  </si>
-  <si>
-    <t>_devppimrb_reod</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r08opsegpc</t>
-  </si>
-  <si>
-    <t>piagtotfun_f5cydep</t>
-  </si>
-  <si>
-    <t>devppimfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>per_010</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5r07san</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct06opseg</t>
-  </si>
-  <si>
-    <t>per_009</t>
+    <t>_devppimtotfun_f5viv</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r18cydep</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>tejgfun_f5ct05prots</t>
+  </si>
+  <si>
+    <t>pimgge_r00ct06acanfpc</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5r18ct06opseg</t>
+  </si>
+  <si>
+    <t>pimgfun_f1ct06san</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f1ct05prots</t>
   </si>
   <si>
     <t>_tejgge_r08ct05biser</t>
   </si>
   <si>
-    <t>_dfgpimpiafun_f5r08ct05opsegpc</t>
-  </si>
-  <si>
     <t>_dfgdevpiagrb_foncpc</t>
   </si>
   <si>
-    <t>_dfgdevpiagtotfun_f5r07energ</t>
-  </si>
-  <si>
-    <t>compu_muni_1</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct06pgrco</t>
+    <t>_tejgtotfun_f5opseg</t>
+  </si>
+  <si>
+    <t>pimgkft_reodpc</t>
+  </si>
+  <si>
+    <t>pimgct_r00gstcppc</t>
+  </si>
+  <si>
+    <t>_tejgct_r00gstcrpc</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f2opseg</t>
+  </si>
+  <si>
+    <t>devppimtotfun_f5turi</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5ct05sanpc</t>
+  </si>
+  <si>
+    <t>_tejgfun_f1ct05protspc</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5r18ct06agro</t>
+  </si>
+  <si>
+    <t>_tdvgfun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>_tejgrb_impm</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.05959744021723697</v>
+        <v>0.01490817827358855</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.01771713579351021</v>
+        <v>0.0124981708024734</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01543745011044192</v>
+        <v>0.009504508568790811</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.008636526929703842</v>
+        <v>0.009235829692581639</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.006506098791865068</v>
+        <v>0.008500909050737682</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.006019633350905117</v>
+        <v>0.007437263570595411</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.004918823859994893</v>
+        <v>0.004953404496410972</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.004391567223725932</v>
+        <v>0.004467190497387235</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.003959616792255043</v>
+        <v>0.004200475626676016</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.003818296809384261</v>
+        <v>0.004021918504413352</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.003719480065763209</v>
+        <v>0.004001136126687925</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.003463013297257565</v>
+        <v>0.003651256129579302</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.003249121801239618</v>
+        <v>0.003120078556004896</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.002803827932107508</v>
+        <v>0.002914618686877528</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.002734192958245784</v>
+        <v>0.00285483929644664</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.002717580437345767</v>
+        <v>0.002760516310882607</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.002699644263400653</v>
+        <v>0.002596578198346151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.00252513624721333</v>
+        <v>0.002514073355859688</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.002479619128446599</v>
+        <v>0.002490966968799659</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.002270602552634</v>
+        <v>0.002361647571709484</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.002256769487328373</v>
+        <v>0.002343364185036436</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.002219140670791209</v>
+        <v>0.002275141470269209</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.002207987468313875</v>
+        <v>0.002254442895210739</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.002154053391242923</v>
+        <v>0.002221589653770451</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.002136601934898283</v>
+        <v>0.002196389907218644</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.001916272913785015</v>
+        <v>0.002122591581612303</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.001874692711664461</v>
+        <v>0.00203916844221394</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.001864118195854534</v>
+        <v>0.001986023024234364</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.001819490140620577</v>
+        <v>0.001973829720159832</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.001751519588903212</v>
+        <v>0.001963577945787877</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.001704826493121677</v>
+        <v>0.001942393940575374</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.001701368469219208</v>
+        <v>0.001915156092049192</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.001654746692946086</v>
+        <v>0.001823239698289403</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.001650391208550023</v>
+        <v>0.001821775709418529</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.001631182268087304</v>
+        <v>0.001814213266710174</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.001588334695648229</v>
+        <v>0.001780730405485892</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.001516866198270136</v>
+        <v>0.001775965807087391</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.001497138064208563</v>
+        <v>0.001741090494929363</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.001444893784577863</v>
+        <v>0.001621785359653043</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.001418547569948907</v>
+        <v>0.001611630791843809</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.001409062108387377</v>
+        <v>0.001502775324889154</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.001371285703303874</v>
+        <v>0.001487750372268488</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.001360017090677188</v>
+        <v>0.001484359269316874</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.00135637940335361</v>
+        <v>0.001443890192960734</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.001311648340919627</v>
+        <v>0.001413312387911662</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.001290335904397087</v>
+        <v>0.001401774794793889</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.001283139894194352</v>
+        <v>0.00137420752723748</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.001271815706281064</v>
+        <v>0.001370652468550006</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.001188567064940041</v>
+        <v>0.001370254284789871</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.001182180670237436</v>
+        <v>0.001367869251908179</v>
       </c>
     </row>
   </sheetData>
